--- a/src/assets/xslxPortais.xlsx
+++ b/src/assets/xslxPortais.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27316"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27318"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0E068E3-97C1-49B9-AE82-C9616CE14A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB72F437-4573-4441-905D-FE5D579342E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,14 +42,14 @@
     <t>Senha</t>
   </si>
   <si>
-    <t>Website</t>
+    <t>O portal possui mais de uma usina?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,8 +58,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -83,14 +91,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -411,13 +421,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="18.75">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,6 +442,15 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{1BF144B7-542B-471F-9BA0-AB1918D583C4}">
+      <formula1>"sim,não"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{C7847672-8260-4845-8FDC-FA37FD221DCC}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{414C17DD-012E-4AE8-97E2-CE39613AD313}">
+      <formula1>"apsystems, aurora, canadian, deye, fronius, fusion, goodwe, growatt, hoymiles, isolar-cloud, renovigi, smten, solarman, solis, weg"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>